--- a/FILTROS IMAGENES/EXPERIMENTOS/RESULTADOS/COMPARACION_KERNELS/FILTRO9X9/kernels/resultados.xlsx
+++ b/FILTROS IMAGENES/EXPERIMENTOS/RESULTADOS/COMPARACION_KERNELS/FILTRO9X9/kernels/resultados.xlsx
@@ -20,19 +20,19 @@
     <t>kernel_filter_color</t>
   </si>
   <si>
+    <t>kernel_filter_color_local_ineficiente</t>
+  </si>
+  <si>
+    <t>kernel_filter_color_local_hebra_maestra</t>
+  </si>
+  <si>
+    <t>kernel_filter_color_local_organizado</t>
+  </si>
+  <si>
+    <t>kernel_filter_color_local_organizado_junto</t>
+  </si>
+  <si>
     <t>kernel_filter_color_rectangular</t>
-  </si>
-  <si>
-    <t>kernel_filter_color_local</t>
-  </si>
-  <si>
-    <t>kernel_filter_color_local2</t>
-  </si>
-  <si>
-    <t>kernel_filter_color_local3</t>
-  </si>
-  <si>
-    <t>kernel_filter_color_local4</t>
   </si>
   <si>
     <t>kernel_filter_color_local_rectangular</t>
@@ -464,25 +464,19 @@
         <v>8</v>
       </c>
       <c r="B2" s="1">
+        <v>1.0208E-05</v>
+      </c>
+      <c r="D2" s="1">
+        <v>2.3552E-05</v>
+      </c>
+      <c r="E2" s="1">
         <v>9.216000000000001E-06</v>
       </c>
-      <c r="C2" s="1">
-        <v>1.1168E-05</v>
-      </c>
-      <c r="D2" s="1">
-        <v>1.536E-05</v>
-      </c>
-      <c r="E2" s="1">
-        <v>2.3552E-05</v>
-      </c>
       <c r="F2" s="1">
-        <v>8.000000000000001E-06</v>
-      </c>
-      <c r="G2" s="1">
-        <v>8.192000000000001E-06</v>
+        <v>9.216000000000001E-06</v>
       </c>
       <c r="H2" s="1">
-        <v>1.1264E-05</v>
+        <v>1.3408E-05</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -490,25 +484,19 @@
         <v>9</v>
       </c>
       <c r="B3" s="1">
-        <v>1.3312E-05</v>
-      </c>
-      <c r="C3" s="1">
-        <v>1.1776E-05</v>
+        <v>1.4336E-05</v>
       </c>
       <c r="D3" s="1">
-        <v>1.8592E-05</v>
+        <v>2.6624E-05</v>
       </c>
       <c r="E3" s="1">
-        <v>2.6624E-05</v>
+        <v>1.024E-05</v>
       </c>
       <c r="F3" s="1">
-        <v>8.192000000000001E-06</v>
-      </c>
-      <c r="G3" s="1">
-        <v>8.192000000000001E-06</v>
+        <v>1.0144E-05</v>
       </c>
       <c r="H3" s="1">
-        <v>1.1936E-05</v>
+        <v>1.2736E-05</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -516,25 +504,19 @@
         <v>10</v>
       </c>
       <c r="B4" s="1">
-        <v>0.000144192</v>
-      </c>
-      <c r="C4" s="1">
-        <v>5.0176E-05</v>
+        <v>0.000144384</v>
       </c>
       <c r="D4" s="1">
-        <v>0.000193536</v>
+        <v>0.000213216</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000213984</v>
+        <v>5.008E-05</v>
       </c>
       <c r="F4" s="1">
-        <v>4.9984E-05</v>
-      </c>
-      <c r="G4" s="1">
         <v>4.915200000000001E-05</v>
       </c>
       <c r="H4" s="1">
-        <v>3.452800000000001E-05</v>
+        <v>3.584E-05</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -542,25 +524,19 @@
         <v>11</v>
       </c>
       <c r="B5" s="1">
-        <v>0.000104224</v>
-      </c>
-      <c r="C5" s="1">
-        <v>4.697600000000001E-05</v>
+        <v>0.000105472</v>
       </c>
       <c r="D5" s="1">
-        <v>0.000173152</v>
+        <v>0.00032256</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000323552</v>
+        <v>7.0752E-05</v>
       </c>
       <c r="F5" s="1">
-        <v>6.9632E-05</v>
-      </c>
-      <c r="G5" s="1">
-        <v>6.956800000000001E-05</v>
+        <v>6.9696E-05</v>
       </c>
       <c r="H5" s="1">
-        <v>4.0992E-05</v>
+        <v>4.409600000000001E-05</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -568,25 +544,19 @@
         <v>12</v>
       </c>
       <c r="B6" s="1">
-        <v>0.000220096</v>
-      </c>
-      <c r="C6" s="1">
-        <v>8.3904E-05</v>
+        <v>0.000221184</v>
       </c>
       <c r="D6" s="1">
-        <v>0.000328544</v>
+        <v>0.0006082560000000001</v>
       </c>
       <c r="E6" s="1">
-        <v>0.00060928</v>
+        <v>0.000126112</v>
       </c>
       <c r="F6" s="1">
-        <v>0.000125984</v>
-      </c>
-      <c r="G6" s="1">
-        <v>0.000125952</v>
+        <v>0.00012624</v>
       </c>
       <c r="H6" s="1">
-        <v>6.889600000000001E-05</v>
+        <v>7.264000000000001E-05</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -594,25 +564,19 @@
         <v>13</v>
       </c>
       <c r="B7" s="1">
-        <v>0.0009246720000000001</v>
-      </c>
-      <c r="C7" s="1">
-        <v>0.000268384</v>
+        <v>0.000925696</v>
       </c>
       <c r="D7" s="1">
-        <v>0.00123872</v>
+        <v>0.001359872</v>
       </c>
       <c r="E7" s="1">
-        <v>0.001363968</v>
+        <v>0.000284672</v>
       </c>
       <c r="F7" s="1">
-        <v>0.000285664</v>
-      </c>
-      <c r="G7" s="1">
-        <v>0.000284672</v>
+        <v>0.000285696</v>
       </c>
       <c r="H7" s="1">
-        <v>0.000161696</v>
+        <v>0.000163936</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -620,25 +584,19 @@
         <v>14</v>
       </c>
       <c r="B8" s="1">
-        <v>0.001738752</v>
-      </c>
-      <c r="C8" s="1">
-        <v>0.0006008000000000001</v>
+        <v>0.001739872</v>
       </c>
       <c r="D8" s="1">
-        <v>0.002849792</v>
+        <v>0.005384416</v>
       </c>
       <c r="E8" s="1">
-        <v>0.00539328</v>
+        <v>0.00107008</v>
       </c>
       <c r="F8" s="1">
-        <v>0.001068032</v>
-      </c>
-      <c r="G8" s="1">
-        <v>0.001068736</v>
+        <v>0.001069184</v>
       </c>
       <c r="H8" s="1">
-        <v>0.0004967680000000001</v>
+        <v>0.000498624</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -646,25 +604,19 @@
         <v>15</v>
       </c>
       <c r="B9" s="1">
-        <v>0.013274112</v>
-      </c>
-      <c r="C9" s="1">
-        <v>0.004028896000000001</v>
+        <v>0.012872704</v>
       </c>
       <c r="D9" s="1">
-        <v>0.018663424</v>
+        <v>0.032086016</v>
       </c>
       <c r="E9" s="1">
-        <v>0.03117344</v>
+        <v>0.00621072</v>
       </c>
       <c r="F9" s="1">
-        <v>0.006210368</v>
-      </c>
-      <c r="G9" s="1">
-        <v>0.006812672000000001</v>
+        <v>0.006237504</v>
       </c>
       <c r="H9" s="1">
-        <v>0.003198976</v>
+        <v>0.00320336</v>
       </c>
     </row>
   </sheetData>
@@ -714,25 +666,19 @@
         <v>8</v>
       </c>
       <c r="B2" s="1">
+        <v>1.0208E-05</v>
+      </c>
+      <c r="D2" s="1">
+        <v>2.3552E-05</v>
+      </c>
+      <c r="E2" s="1">
         <v>9.216000000000001E-06</v>
       </c>
-      <c r="C2" s="1">
-        <v>1.1168E-05</v>
-      </c>
-      <c r="D2" s="1">
-        <v>1.536E-05</v>
-      </c>
-      <c r="E2" s="1">
-        <v>2.3552E-05</v>
-      </c>
       <c r="F2" s="1">
-        <v>8.000000000000001E-06</v>
-      </c>
-      <c r="G2" s="1">
-        <v>8.192000000000001E-06</v>
+        <v>9.216000000000001E-06</v>
       </c>
       <c r="H2" s="1">
-        <v>1.1264E-05</v>
+        <v>1.3408E-05</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -740,25 +686,19 @@
         <v>9</v>
       </c>
       <c r="B3" s="1">
-        <v>1.3312E-05</v>
-      </c>
-      <c r="C3" s="1">
-        <v>1.1776E-05</v>
+        <v>1.4336E-05</v>
       </c>
       <c r="D3" s="1">
-        <v>1.8592E-05</v>
+        <v>2.6624E-05</v>
       </c>
       <c r="E3" s="1">
-        <v>2.6624E-05</v>
+        <v>1.024E-05</v>
       </c>
       <c r="F3" s="1">
-        <v>8.192000000000001E-06</v>
-      </c>
-      <c r="G3" s="1">
-        <v>8.192000000000001E-06</v>
+        <v>1.0144E-05</v>
       </c>
       <c r="H3" s="1">
-        <v>1.1936E-05</v>
+        <v>1.2736E-05</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -766,25 +706,19 @@
         <v>10</v>
       </c>
       <c r="B4" s="1">
-        <v>0.000144192</v>
-      </c>
-      <c r="C4" s="1">
-        <v>5.0176E-05</v>
+        <v>0.000144384</v>
       </c>
       <c r="D4" s="1">
-        <v>0.000193536</v>
+        <v>0.000213216</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000213984</v>
+        <v>5.008E-05</v>
       </c>
       <c r="F4" s="1">
-        <v>4.9984E-05</v>
-      </c>
-      <c r="G4" s="1">
         <v>4.915200000000001E-05</v>
       </c>
       <c r="H4" s="1">
-        <v>3.452800000000001E-05</v>
+        <v>3.584E-05</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -792,25 +726,19 @@
         <v>11</v>
       </c>
       <c r="B5" s="1">
-        <v>0.000104224</v>
-      </c>
-      <c r="C5" s="1">
-        <v>4.697600000000001E-05</v>
+        <v>0.000105472</v>
       </c>
       <c r="D5" s="1">
-        <v>0.000173152</v>
+        <v>0.00032256</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000323552</v>
+        <v>7.0752E-05</v>
       </c>
       <c r="F5" s="1">
-        <v>6.9632E-05</v>
-      </c>
-      <c r="G5" s="1">
-        <v>6.956800000000001E-05</v>
+        <v>6.9696E-05</v>
       </c>
       <c r="H5" s="1">
-        <v>4.0992E-05</v>
+        <v>4.409600000000001E-05</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -818,25 +746,19 @@
         <v>12</v>
       </c>
       <c r="B6" s="1">
-        <v>0.000220096</v>
-      </c>
-      <c r="C6" s="1">
-        <v>8.3904E-05</v>
+        <v>0.000221184</v>
       </c>
       <c r="D6" s="1">
-        <v>0.000328544</v>
+        <v>0.0006082560000000001</v>
       </c>
       <c r="E6" s="1">
-        <v>0.00060928</v>
+        <v>0.000126112</v>
       </c>
       <c r="F6" s="1">
-        <v>0.000125984</v>
-      </c>
-      <c r="G6" s="1">
-        <v>0.000125952</v>
+        <v>0.00012624</v>
       </c>
       <c r="H6" s="1">
-        <v>6.889600000000001E-05</v>
+        <v>7.264000000000001E-05</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -844,25 +766,19 @@
         <v>13</v>
       </c>
       <c r="B7" s="1">
-        <v>0.0009246720000000001</v>
-      </c>
-      <c r="C7" s="1">
-        <v>0.000268384</v>
+        <v>0.000925696</v>
       </c>
       <c r="D7" s="1">
-        <v>0.00123872</v>
+        <v>0.001359872</v>
       </c>
       <c r="E7" s="1">
-        <v>0.001363968</v>
+        <v>0.000284672</v>
       </c>
       <c r="F7" s="1">
-        <v>0.000285664</v>
-      </c>
-      <c r="G7" s="1">
-        <v>0.000284672</v>
+        <v>0.000285696</v>
       </c>
       <c r="H7" s="1">
-        <v>0.000161696</v>
+        <v>0.000163936</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -870,25 +786,19 @@
         <v>14</v>
       </c>
       <c r="B8" s="1">
-        <v>0.001738752</v>
-      </c>
-      <c r="C8" s="1">
-        <v>0.0006008000000000001</v>
+        <v>0.001739872</v>
       </c>
       <c r="D8" s="1">
-        <v>0.002849792</v>
+        <v>0.005384416</v>
       </c>
       <c r="E8" s="1">
-        <v>0.00539328</v>
+        <v>0.00107008</v>
       </c>
       <c r="F8" s="1">
-        <v>0.001068032</v>
-      </c>
-      <c r="G8" s="1">
-        <v>0.001068736</v>
+        <v>0.001069184</v>
       </c>
       <c r="H8" s="1">
-        <v>0.0004967680000000001</v>
+        <v>0.000498624</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -896,25 +806,19 @@
         <v>15</v>
       </c>
       <c r="B9" s="1">
-        <v>0.013274112</v>
-      </c>
-      <c r="C9" s="1">
-        <v>0.004028896000000001</v>
+        <v>0.012872704</v>
       </c>
       <c r="D9" s="1">
-        <v>0.018663424</v>
+        <v>0.032086016</v>
       </c>
       <c r="E9" s="1">
-        <v>0.03117344</v>
+        <v>0.00621072</v>
       </c>
       <c r="F9" s="1">
-        <v>0.006210368</v>
-      </c>
-      <c r="G9" s="1">
-        <v>0.006812672000000001</v>
+        <v>0.006237504</v>
       </c>
       <c r="H9" s="1">
-        <v>0.003198976</v>
+        <v>0.00320336</v>
       </c>
     </row>
   </sheetData>
